--- a/biology/Médecine/Johann_Conrad_Amman_(1724-1811)/Johann_Conrad_Amman_(1724-1811).xlsx
+++ b/biology/Médecine/Johann_Conrad_Amman_(1724-1811)/Johann_Conrad_Amman_(1724-1811).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Conrad Ammann  (né le 24 décembre 1724 à Schaffhouse, Suisse et mort le 11 octobre 1811 à Schaffhouse, Suisse) est un médecin suisse, naturaliste et collectionneur (collectionneur de coquillages, de fossiles et de papillons).
 Après avoir passé son doctorat à Leyde en 1749, il commence à pratiquer à Schaffhouse. Il est particulièrement connu pour sa collection de fossiles.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>en:Johann Conrad Ammann, version du 7 octobre 2007 à 15:13
 Brignon A. 2016. — Les poissons téléostéens d’Öhningen (Miocène, Allemagne) de la collection Johann Conrad Ammann étudiés par Georges Cuvier et leur apport à l’histoire de la paléontologie. Geodiversitas 38 (1): 33-64. http:// dx.doi.org/10.5252/g2016n1a3</t>
